--- a/branches/lab-order-management/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/lab-order-management/StructureDefinition-covid19-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T13:02:50+00:00</t>
+    <t>2022-09-15T14:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/lab-order-management/StructureDefinition-covid19-diagnosis.xlsx
+++ b/branches/lab-order-management/StructureDefinition-covid19-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T14:13:29+00:00</t>
+    <t>2022-09-15T14:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
